--- a/data/trans_camb/P1417-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1417-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.196925491176419</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.396132235129044</v>
+        <v>4.396132235129045</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7885791675089318</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6894117695809671</v>
+        <v>-0.6690680733459957</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1877467201785965</v>
+        <v>-0.09020432553923509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.826828036171138</v>
+        <v>1.760540978661766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0288694566091749</v>
+        <v>-0.01338384769721972</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2281650238616023</v>
+        <v>-0.3857999934595687</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.701701570542421</v>
+        <v>2.680091844668707</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.0615257296580126</v>
+        <v>0.05971489017549075</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1318349175883014</v>
+        <v>0.1675505056329684</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.841687954899853</v>
+        <v>2.802935978017912</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6861116206362834</v>
+        <v>0.6979406406322191</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.708871753999305</v>
+        <v>1.810251170768274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.758795627875954</v>
+        <v>4.567081582096891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.659056146915834</v>
+        <v>2.627992452019241</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.806941533292963</v>
+        <v>2.733980231156753</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.932351899549309</v>
+        <v>5.984600782971716</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.604412210309849</v>
+        <v>1.744777179788177</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.942272349162501</v>
+        <v>2.031919130882092</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.035988776795948</v>
+        <v>5.102941516641446</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4993336647416828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.833979504854978</v>
+        <v>1.833979504854979</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4896323888905986</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7394493444114959</v>
+        <v>-0.8059396068495697</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3460873218973696</v>
+        <v>-0.2359652549586614</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.565325073210254</v>
+        <v>1.323401033130462</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01968463420474099</v>
+        <v>-0.008554522414833662</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09407618615273342</v>
+        <v>-0.1380960472438161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8472138508677597</v>
+        <v>0.8543909602395086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03840993512293575</v>
+        <v>0.004317620057837881</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04475886452460135</v>
+        <v>0.06891684913216312</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.381902957101738</v>
+        <v>1.368989344272761</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.554124643833319</v>
+        <v>2.592569308351466</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.700096037476561</v>
+        <v>5.936541730260266</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>16.65050166278521</v>
+        <v>14.62007579760711</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.433010477410825</v>
+        <v>1.392245151358363</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.522218684792916</v>
+        <v>1.556456814780856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.400740889960113</v>
+        <v>3.17279488217119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.257755047986094</v>
+        <v>1.410080595590567</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.438434826626165</v>
+        <v>1.532746044900564</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.959917747863259</v>
+        <v>4.13835257086291</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.21316433699808</v>
+        <v>-0.1719998733593311</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2249200557689829</v>
+        <v>-0.2535551099918032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2176969945569105</v>
+        <v>0.2176765635417667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.04909486985472387</v>
+        <v>0.01404996904601634</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1386261247316682</v>
+        <v>-0.08010239054263511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.616535242867333</v>
+        <v>1.736786361358589</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01354298032273428</v>
+        <v>0.02979268840141169</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01506505798334972</v>
+        <v>0.01441283463862723</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.121463859690493</v>
+        <v>1.04752328389433</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5072681516520963</v>
+        <v>0.5134210096624414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.495258697623131</v>
+        <v>0.4579860236266615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.11086914376819</v>
+        <v>1.077651578765809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.750936414521677</v>
+        <v>1.741948769956065</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.541156842124563</v>
+        <v>1.715079306402279</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.541623530274188</v>
+        <v>3.616928758858971</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9594663046212824</v>
+        <v>0.9587272218494907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9108148739749393</v>
+        <v>0.9227047771009337</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.158148892188996</v>
+        <v>2.117187407931418</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5784702936103301</v>
+        <v>-0.5200144221219319</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6546920133558011</v>
+        <v>-0.6706143991040002</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2918900970934509</v>
+        <v>0.3162116936651231</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06929866088871904</v>
+        <v>-0.02744556922068246</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09319250376855863</v>
+        <v>-0.0466448296723906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8843818133277044</v>
+        <v>0.9049836895036253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01280645895462145</v>
+        <v>-0.04428421932624969</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01420758370483731</v>
+        <v>-0.02116213000775382</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.122802811969967</v>
+        <v>0.9587248045807275</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.829792675953963</v>
+        <v>4.669910310230859</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.479893063523457</v>
+        <v>3.969475899200582</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.701890416874001</v>
+        <v>9.799369760533983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.020012580040304</v>
+        <v>1.92952943089569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.652244390349802</v>
+        <v>2.072872340141012</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.982223552292712</v>
+        <v>4.139356566760178</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.765948316092824</v>
+        <v>1.639785909111699</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.747316563004817</v>
+        <v>1.627102225368585</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.096129710517123</v>
+        <v>3.867046809307146</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.3135375361506553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.2115747170870497</v>
+        <v>-0.2115747170870498</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9958283096878696</v>
@@ -1083,7 +1083,7 @@
         <v>0.7126650330357581</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.637367482022327</v>
+        <v>2.637367482022326</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3570973483545939</v>
@@ -1092,7 +1092,7 @@
         <v>0.2282295639608621</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.268611946028522</v>
+        <v>1.268611946028521</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.292150968331821</v>
+        <v>-1.436915151491749</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.37862377362236</v>
+        <v>-1.437218506311507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.321297483048455</v>
+        <v>-1.334892692319987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7657948014033794</v>
+        <v>-0.6765129652665544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8123075896993157</v>
+        <v>-0.8103926009764003</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9584645120248245</v>
+        <v>0.9732328321459017</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5752581536854378</v>
+        <v>-0.6369883208003378</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8028549162366483</v>
+        <v>-0.7402239053298317</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2432723213352196</v>
+        <v>0.260494608659853</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.422770036931656</v>
+        <v>0.3311533850302807</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2529055427584194</v>
+        <v>0.3682328643550552</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3305452176342632</v>
+        <v>0.370821512466851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.727210250552378</v>
+        <v>2.880646993264446</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.367840180961834</v>
+        <v>2.206679686084402</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.383597786210832</v>
+        <v>4.102230030727807</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.313450688694502</v>
+        <v>1.308776633695574</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.176656860299507</v>
+        <v>1.057831718114724</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.085050216842552</v>
+        <v>2.13543284982909</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.6278220901328354</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4236535208244707</v>
+        <v>-0.4236535208244709</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.8060384696490915</v>
@@ -1211,22 +1211,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.4908286929376685</v>
+        <v>-0.5468093755710921</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4821349230931077</v>
+        <v>-0.491297998424728</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2836637308641103</v>
+        <v>0.2610865818385089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5064394860224904</v>
+        <v>-0.5599173113975815</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5946477875329496</v>
+        <v>-0.6318736965052725</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1443470004288521</v>
+        <v>0.0923281939692689</v>
       </c>
     </row>
     <row r="21">
@@ -1240,22 +1240,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>5.371768198917439</v>
+        <v>4.987993996019886</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.436541509500959</v>
+        <v>4.735921312739787</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.356228069826498</v>
+        <v>7.689790086521475</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.916449990172227</v>
+        <v>3.301372301378774</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.839261928701217</v>
+        <v>2.445760773049886</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.958912371112642</v>
+        <v>5.051104223895905</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2586265954543639</v>
+        <v>-0.3155115400763051</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2017395992155593</v>
+        <v>-0.2061222486963742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4094846218702346</v>
+        <v>0.3905445204703622</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3165168599103492</v>
+        <v>0.3436671909457523</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09076872843622756</v>
+        <v>0.07183196963200517</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.100164499870319</v>
+        <v>2.071471056243895</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1198143267014788</v>
+        <v>0.1409351623944541</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05275316360773387</v>
+        <v>0.0705529731702761</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.446483718073835</v>
+        <v>1.433552929366148</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.372736999833475</v>
+        <v>0.3341846815093408</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4833060430044412</v>
+        <v>0.4891395929405118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.196903821026968</v>
+        <v>1.203046923760186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.740026236701581</v>
+        <v>1.726050381568696</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.530357074177167</v>
+        <v>1.458501046891827</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.598973537739321</v>
+        <v>3.549297945887261</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9596942916796249</v>
+        <v>0.9755295018555787</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8385546279181625</v>
+        <v>0.878977241942601</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.289214429111285</v>
+        <v>2.28470227728839</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.462957994842096</v>
+        <v>-0.5397310001373568</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3915167886086787</v>
+        <v>-0.381480338262761</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5282451697330059</v>
+        <v>0.5643769633587081</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1485344970994981</v>
+        <v>0.1583158472135272</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03682492471985906</v>
+        <v>0.03105076178636578</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.006339563272056</v>
+        <v>0.9532428224892523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09176436379957253</v>
+        <v>0.1055983293522986</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03269448596545375</v>
+        <v>0.05378742590984145</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.05516389196582</v>
+        <v>1.102530522833373</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.860622156476365</v>
+        <v>1.436661040697069</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.930633684518941</v>
+        <v>1.811461182928493</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.562771195259431</v>
+        <v>4.571327081745378</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.227941109323184</v>
+        <v>1.270026082990023</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.087721454603166</v>
+        <v>1.077732547162907</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.704055598922623</v>
+        <v>2.600436078397729</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.048990478711372</v>
+        <v>1.122114330041283</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9599662964363649</v>
+        <v>1.043433921128826</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.52622465825516</v>
+        <v>2.580046957048188</v>
       </c>
     </row>
     <row r="28">
